--- a/file_checks/correct_sample.xlsx
+++ b/file_checks/correct_sample.xlsx
@@ -1451,511 +1451,511 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0332625730262065</v>
+        <v>-1.84185690629081</v>
       </c>
       <c r="B2" t="n">
-        <v>0.632159139900683</v>
+        <v>-0.352403165042514</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.224220544023963</v>
+        <v>-1.85881958250952</v>
       </c>
       <c r="D2" t="n">
-        <v>0.994764414216848</v>
+        <v>-2.30244664293239</v>
       </c>
       <c r="E2" t="n">
-        <v>0.599967559395112</v>
+        <v>-0.479683743662532</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.14202378791629</v>
+        <v>2.51021419425296</v>
       </c>
       <c r="G2" t="n">
-        <v>0.483528027819333</v>
+        <v>-1.22966336807997</v>
       </c>
       <c r="H2" t="n">
-        <v>0.112232259167833</v>
+        <v>-0.179769253498142</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.971297779666041</v>
+        <v>-0.809935057418606</v>
       </c>
       <c r="J2" t="n">
-        <v>-1.61704740315904</v>
+        <v>-1.14120140751103</v>
       </c>
       <c r="K2" t="n">
-        <v>0.929428008301582</v>
+        <v>1.0714831426829</v>
       </c>
       <c r="L2" t="n">
-        <v>0.47285844196006</v>
+        <v>-0.512446472591565</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.405768352315035</v>
+        <v>-0.342636928553884</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.819543818362481</v>
+        <v>0.597885063659858</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.13174372856473</v>
+        <v>1.58462599175876</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.0394313631246771</v>
+        <v>0.450628778986214</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.725369490244911</v>
+        <v>-1.79250573037941</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.196595879975794</v>
+        <v>0.499129406304391</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.163465587151901</v>
+        <v>1.45228170702436</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.550760805520067</v>
+        <v>0.698889938256758</v>
       </c>
       <c r="U2" t="n">
-        <v>0.902550512633283</v>
+        <v>1.35025604213336</v>
       </c>
       <c r="V2" t="n">
-        <v>0.820031468732052</v>
+        <v>1.00415305462258</v>
       </c>
       <c r="W2" t="n">
-        <v>0.385186111775592</v>
+        <v>-2.15063102977654</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.335602455603083</v>
+        <v>1.38591792621572</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.479197884359345</v>
+        <v>-0.287535573863652</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.222329132766591</v>
+        <v>1.29011381595681</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.124599306336657</v>
+        <v>0.412111963082611</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.13818959564421</v>
+        <v>0.999585630838999</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.721151168272</v>
+        <v>0.158054246149073</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.0251359889656884</v>
+        <v>-1.32154512877391</v>
       </c>
       <c r="AE2" t="n">
-        <v>-1.45346345996153</v>
+        <v>1.79385751765638</v>
       </c>
       <c r="AF2" t="n">
-        <v>-2.09786968528082</v>
+        <v>-0.0824237191659682</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.11132450997138</v>
+        <v>-0.742358883934816</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.778348637699185</v>
+        <v>-1.66149162004605</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.384501320153241</v>
+        <v>-2.4775009051341</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.39965657752566</v>
+        <v>1.08982318993372</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.844791903980367</v>
+        <v>-0.547686368360867</v>
       </c>
       <c r="AL2" t="n">
-        <v>-1.24678742217534</v>
+        <v>0.926752588035231</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.486987081641042</v>
+        <v>-0.273560227675783</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.403182143826161</v>
+        <v>-0.68936139882799</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.406537279620664</v>
+        <v>-1.24911452035831</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.696951160713703</v>
+        <v>0.263040127482772</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.504647100549797</v>
+        <v>-1.4473118724238</v>
       </c>
       <c r="AR2" t="n">
-        <v>1.61063610592199</v>
+        <v>-0.921981971590982</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.369884075779929</v>
+        <v>0.0632468783688644</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.989539315258794</v>
+        <v>-0.116272391757766</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.633457689118596</v>
+        <v>0.254576826977616</v>
       </c>
       <c r="AV2" t="n">
-        <v>1.39519271859065</v>
+        <v>0.126098901989155</v>
       </c>
       <c r="AW2" t="n">
-        <v>1.01884241826143</v>
+        <v>0.237328106087071</v>
       </c>
       <c r="AX2" t="n">
-        <v>-1.15487088612793</v>
+        <v>-0.648138576255743</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.0402141134480919</v>
+        <v>-1.49519063647742</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.769706276994325</v>
+        <v>-0.103696076571977</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.39534800647955</v>
+        <v>-0.170985388048681</v>
       </c>
       <c r="BB2" t="n">
-        <v>-1.28826364971578</v>
+        <v>0.704520093563473</v>
       </c>
       <c r="BC2" t="n">
-        <v>-1.06900338789432</v>
+        <v>-1.07906870663561</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.400659029947973</v>
+        <v>-0.986230059161132</v>
       </c>
       <c r="BE2" t="n">
-        <v>-1.32372467121858</v>
+        <v>0.541565346716912</v>
       </c>
       <c r="BF2" t="n">
-        <v>1.42957198688538</v>
+        <v>0.76294766029266</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.466654597650017</v>
+        <v>1.43813921233525</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.111476925789638</v>
+        <v>-0.361984513941442</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.174945800872279</v>
+        <v>0.120394329632698</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.0837018826676354</v>
+        <v>0.423687556417148</v>
       </c>
       <c r="BK2" t="n">
-        <v>1.95277667919081</v>
+        <v>0.587093398938056</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.555163286804005</v>
+        <v>0.735319869072559</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.661074641443195</v>
+        <v>0.125588941110622</v>
       </c>
       <c r="BN2" t="n">
-        <v>1.56581652276314</v>
+        <v>-0.339186155261817</v>
       </c>
       <c r="BO2" t="n">
-        <v>1.60118821689331</v>
+        <v>-1.49609508577496</v>
       </c>
       <c r="BP2" t="n">
-        <v>-1.29160384186395</v>
+        <v>-0.813762303375098</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.380753477851768</v>
+        <v>-0.257759677181043</v>
       </c>
       <c r="BR2" t="n">
-        <v>-1.42185407054949</v>
+        <v>-1.64476203109193</v>
       </c>
       <c r="BS2" t="n">
-        <v>1.06496070568293</v>
+        <v>-0.715998897754773</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.0651695283025678</v>
+        <v>1.09969773578115</v>
       </c>
       <c r="BU2" t="n">
-        <v>1.30119196984649</v>
+        <v>0.408404861357164</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.676643529177676</v>
+        <v>0.177567923394419</v>
       </c>
       <c r="BW2" t="n">
-        <v>2.0418294898825</v>
+        <v>0.451370638363548</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.597225464041998</v>
+        <v>-1.68344827255538</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.203530615415627</v>
+        <v>0.362092205701919</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0.7927960697874</v>
+        <v>0.181390273011138</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.480826739875421</v>
+        <v>0.576030535445599</v>
       </c>
       <c r="CB2" t="n">
-        <v>1.4785321260094</v>
+        <v>-0.125189003546906</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.495695409297845</v>
+        <v>0.522232224432557</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.353041137803425</v>
+        <v>-0.378474862795285</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.816607282915358</v>
+        <v>-1.02511819719282</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.722677907771147</v>
+        <v>2.16241877513348</v>
       </c>
       <c r="CG2" t="n">
-        <v>1.88454727178511</v>
+        <v>-0.635668989751764</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.867799485284067</v>
+        <v>-0.642320715873177</v>
       </c>
       <c r="CI2" t="n">
-        <v>1.71232409068155</v>
+        <v>-0.0251129016637303</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.339908038797928</v>
+        <v>-0.816329650033594</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.16537045693323</v>
+        <v>-0.968646065319726</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.279390783089526</v>
+        <v>0.451260616142811</v>
       </c>
       <c r="CM2" t="n">
-        <v>1.38152754620028</v>
+        <v>-1.38742506422372</v>
       </c>
       <c r="CN2" t="n">
-        <v>-2.50577993880266</v>
+        <v>1.8753300316444</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.0725492682868367</v>
+        <v>-0.237729759491227</v>
       </c>
       <c r="CP2" t="n">
-        <v>-1.52346246102639</v>
+        <v>-1.96827764614347</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.791012412539879</v>
+        <v>0.151667785261668</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.187485353501778</v>
+        <v>0.970323416769708</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.057335984522351</v>
+        <v>-0.889791142360513</v>
       </c>
       <c r="CT2" t="n">
-        <v>2.68041746079638</v>
+        <v>-1.65923241827117</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.801934642274617</v>
+        <v>-0.302073078104987</v>
       </c>
       <c r="CV2" t="n">
-        <v>1.67412811710286</v>
+        <v>1.63032270801032</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.228169158545163</v>
+        <v>-0.666304147224956</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.031273562713927</v>
+        <v>-1.32227261052058</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0.966087635105557</v>
+        <v>0.348579545391616</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.461009180939667</v>
+        <v>1.81832851006758</v>
       </c>
       <c r="DA2" t="n">
-        <v>-1.11407075632674</v>
+        <v>-1.94578451690808</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.280789884024461</v>
+        <v>0.0866963902047247</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.550824602351812</v>
+        <v>-1.81044162727586</v>
       </c>
       <c r="DD2" t="n">
-        <v>1.2887073645437</v>
+        <v>-0.829788021485639</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.239036376966321</v>
+        <v>-0.483130156828207</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.129244513768129</v>
+        <v>0.64869108683121</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0.908627799330669</v>
+        <v>0.866674161502266</v>
       </c>
       <c r="DH2" t="n">
-        <v>1.02372666854176</v>
+        <v>2.44665146294621</v>
       </c>
       <c r="DI2" t="n">
-        <v>1.00519078235608</v>
+        <v>0.616652845115884</v>
       </c>
       <c r="DJ2" t="n">
-        <v>1.56969688580683</v>
+        <v>-1.73270374880527</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.812120553134589</v>
+        <v>-0.423455498065918</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.85292630230482</v>
+        <v>-0.0346176200471798</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.434022455341454</v>
+        <v>0.682317213834178</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0.26835773814262</v>
+        <v>-0.969481486652363</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.684340174619176</v>
+        <v>-0.294497042733705</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.36723978415724</v>
+        <v>-0.437222125883419</v>
       </c>
       <c r="DQ2" t="n">
-        <v>1.26563403077964</v>
+        <v>1.21555064344704</v>
       </c>
       <c r="DR2" t="n">
-        <v>-1.12579911785192</v>
+        <v>0.205024221355635</v>
       </c>
       <c r="DS2" t="n">
-        <v>1.1314074594954</v>
+        <v>-0.349277563459942</v>
       </c>
       <c r="DT2" t="n">
-        <v>-1.42938083280999</v>
+        <v>-0.28102231021795</v>
       </c>
       <c r="DU2" t="n">
-        <v>-0.328898888011354</v>
+        <v>-1.8409796366338</v>
       </c>
       <c r="DV2" t="n">
-        <v>1.36686344302176</v>
+        <v>0.200531020604046</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.212961150195098</v>
+        <v>0.114034461045016</v>
       </c>
       <c r="DX2" t="n">
-        <v>1.70720887453141</v>
+        <v>1.521194041549</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.276376633073961</v>
+        <v>0.721252245039535</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.536711964670123</v>
+        <v>0.493878758934765</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.18339943145418</v>
+        <v>-0.665188893773137</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.0234039883962281</v>
+        <v>0.474926015326751</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0.294079515454514</v>
+        <v>-1.75494069490907</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.394694648746938</v>
+        <v>0.672957961894489</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.285544914429735</v>
+        <v>-0.329217716458147</v>
       </c>
       <c r="EF2" t="n">
-        <v>1.39633500088771</v>
+        <v>0.144829431830466</v>
       </c>
       <c r="EG2" t="n">
-        <v>-1.65885496176367</v>
+        <v>-1.29014813118654</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.546860019643611</v>
+        <v>0.328251088902849</v>
       </c>
       <c r="EI2" t="n">
-        <v>-1.15484798302122</v>
+        <v>-0.100248987305749</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1.03361010504377</v>
+        <v>1.0364123585088</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.597612081731187</v>
+        <v>0.0029672819333219</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.969737488615173</v>
+        <v>-0.320990702420545</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.39608760451759</v>
+        <v>1.44678514190242</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.534306172704391</v>
+        <v>1.90792481667073</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.21960204548287</v>
+        <v>0.0331271203685016</v>
       </c>
       <c r="EP2" t="n">
-        <v>-0.442278713564454</v>
+        <v>0.458003176918757</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.450754751817436</v>
+        <v>1.20827253721667</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.724371299391335</v>
+        <v>0.275695192025783</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.305290906068577</v>
+        <v>1.0791847060802</v>
       </c>
       <c r="ET2" t="n">
-        <v>1.83256850749475</v>
+        <v>-0.116379123390266</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.728229570762125</v>
+        <v>-0.196143336789465</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.457134826131552</v>
+        <v>-3.22306515304667</v>
       </c>
       <c r="EW2" t="n">
-        <v>2.69876541128781</v>
+        <v>-1.93054444119244</v>
       </c>
       <c r="EX2" t="n">
-        <v>-2.1572221712525</v>
+        <v>-0.31526942252802</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.633373112264486</v>
+        <v>0.0381938001612721</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.637639644205732</v>
+        <v>-0.789847120889859</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0.847129647359717</v>
+        <v>-0.26053699097266</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.619480723986684</v>
+        <v>-1.06209852721091</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0.0148829627694711</v>
+        <v>-0.312413591360455</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.401693765601155</v>
+        <v>-1.20177588611681</v>
       </c>
       <c r="FE2" t="n">
-        <v>-0.387348570172541</v>
+        <v>0.079579316754942</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.329833957805984</v>
+        <v>-0.570044269925525</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.402611754502741</v>
+        <v>-1.68810170934882</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.166922043562765</v>
+        <v>-0.229668110912518</v>
       </c>
       <c r="FI2" t="n">
-        <v>1.28809627365584</v>
+        <v>0.229132588396683</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0.847774354095254</v>
+        <v>0.418405963212464</v>
       </c>
       <c r="FK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL2" t="n">
         <v>0</v>
       </c>
-      <c r="FL2" t="n">
-        <v>1</v>
-      </c>
       <c r="FM2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN2" t="n">
         <v>1</v>
@@ -1967,25 +1967,25 @@
         <v>1</v>
       </c>
       <c r="FQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR2" t="n">
         <v>1</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>0</v>
       </c>
       <c r="FS2" t="n">
         <v>0</v>
       </c>
       <c r="FT2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FU2" t="n">
         <v>0</v>
       </c>
       <c r="FV2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FW2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FX2" t="n">
         <v>1</v>
@@ -1994,13 +1994,13 @@
         <v>1</v>
       </c>
       <c r="FZ2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GA2" t="n">
         <v>0</v>
       </c>
       <c r="GB2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/file_checks/correct_sample.xlsx
+++ b/file_checks/correct_sample.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
   <si>
     <t xml:space="preserve">1017</t>
   </si>
@@ -561,6 +561,15 @@
   </si>
   <si>
     <t xml:space="preserve">rorS_risk_high</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ER_hp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ER_lp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HER2_scmod1</t>
   </si>
   <si>
     <t xml:space="preserve">Endo</t>
@@ -1448,559 +1457,577 @@
       <c r="GB1" t="s">
         <v>183</v>
       </c>
+      <c r="GC1" t="s">
+        <v>184</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>185</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.84185690629081</v>
+        <v>-0.889075795058158</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.352403165042514</v>
+        <v>-0.129217247201182</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.85881958250952</v>
+        <v>-0.777913205337782</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.30244664293239</v>
+        <v>0.823275895010583</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.479683743662532</v>
+        <v>0.706369012126771</v>
       </c>
       <c r="F2" t="n">
-        <v>2.51021419425296</v>
+        <v>1.0455363390689</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.22966336807997</v>
+        <v>0.458358543125255</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.179769253498142</v>
+        <v>0.318418276974692</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.809935057418606</v>
+        <v>1.22998023687254</v>
       </c>
       <c r="J2" t="n">
-        <v>-1.14120140751103</v>
+        <v>1.01622313995245</v>
       </c>
       <c r="K2" t="n">
-        <v>1.0714831426829</v>
+        <v>-1.21704041737925</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.512446472591565</v>
+        <v>0.0913336108297502</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.342636928553884</v>
+        <v>1.34960536691478</v>
       </c>
       <c r="N2" t="n">
-        <v>0.597885063659858</v>
+        <v>-1.11271771974539</v>
       </c>
       <c r="O2" t="n">
-        <v>1.58462599175876</v>
+        <v>-1.47648462832388</v>
       </c>
       <c r="P2" t="n">
-        <v>0.450628778986214</v>
+        <v>0.75527114153421</v>
       </c>
       <c r="Q2" t="n">
-        <v>-1.79250573037941</v>
+        <v>0.0902412908144361</v>
       </c>
       <c r="R2" t="n">
-        <v>0.499129406304391</v>
+        <v>0.682579862065519</v>
       </c>
       <c r="S2" t="n">
-        <v>1.45228170702436</v>
+        <v>-1.56233509327399</v>
       </c>
       <c r="T2" t="n">
-        <v>0.698889938256758</v>
+        <v>-0.592640738064186</v>
       </c>
       <c r="U2" t="n">
-        <v>1.35025604213336</v>
+        <v>-1.88340481436647</v>
       </c>
       <c r="V2" t="n">
-        <v>1.00415305462258</v>
+        <v>-0.547703474498295</v>
       </c>
       <c r="W2" t="n">
-        <v>-2.15063102977654</v>
+        <v>0.183908818221535</v>
       </c>
       <c r="X2" t="n">
-        <v>1.38591792621572</v>
+        <v>-0.0284490495321444</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.287535573863652</v>
+        <v>-1.7818680133141</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.29011381595681</v>
+        <v>-0.978280541704416</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.412111963082611</v>
+        <v>-1.8792794034893</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.999585630838999</v>
+        <v>1.79851702452148</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.158054246149073</v>
+        <v>0.731525073347079</v>
       </c>
       <c r="AD2" t="n">
-        <v>-1.32154512877391</v>
+        <v>-0.506037593427788</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.79385751765638</v>
+        <v>0.000984124480283662</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.0824237191659682</v>
+        <v>-0.664715721124253</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.742358883934816</v>
+        <v>-2.13419030060521</v>
       </c>
       <c r="AH2" t="n">
-        <v>-1.66149162004605</v>
+        <v>-0.894785983398842</v>
       </c>
       <c r="AI2" t="n">
-        <v>-2.4775009051341</v>
+        <v>0.941419200258391</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.08982318993372</v>
+        <v>-0.405155261905546</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.547686368360867</v>
+        <v>1.55282439394079</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.926752588035231</v>
+        <v>0.244457868868051</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.273560227675783</v>
+        <v>-0.0568643659642897</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.68936139882799</v>
+        <v>-0.29007879073731</v>
       </c>
       <c r="AO2" t="n">
-        <v>-1.24911452035831</v>
+        <v>-1.04433834725276</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.263040127482772</v>
+        <v>1.22726437958658</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-1.4473118724238</v>
+        <v>-0.572720312144919</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.921981971590982</v>
+        <v>-0.283256103114697</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.0632468783688644</v>
+        <v>-0.00144924934778719</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.116272391757766</v>
+        <v>-1.0065462118355</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.254576826977616</v>
+        <v>-0.31290767366886</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.126098901989155</v>
+        <v>0.32101776257702</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.237328106087071</v>
+        <v>0.669444771619399</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.648138576255743</v>
+        <v>-2.99837171054227</v>
       </c>
       <c r="AY2" t="n">
-        <v>-1.49519063647742</v>
+        <v>-0.043265124270529</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.103696076571977</v>
+        <v>-0.380887930180112</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.170985388048681</v>
+        <v>-1.29237648555457</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.704520093563473</v>
+        <v>-0.889787178217362</v>
       </c>
       <c r="BC2" t="n">
-        <v>-1.07906870663561</v>
+        <v>1.05058236794416</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.986230059161132</v>
+        <v>-0.941071312847797</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.541565346716912</v>
+        <v>0.449483843953683</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.76294766029266</v>
+        <v>0.477900256913852</v>
       </c>
       <c r="BG2" t="n">
-        <v>1.43813921233525</v>
+        <v>0.51103420911874</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.361984513941442</v>
+        <v>-0.852811720328571</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.120394329632698</v>
+        <v>0.343657721726187</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.423687556417148</v>
+        <v>-1.4952103057921</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.587093398938056</v>
+        <v>-1.84111364504156</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.735319869072559</v>
+        <v>-0.845609607380417</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.125588941110622</v>
+        <v>-0.209521583799434</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.339186155261817</v>
+        <v>0.0520487591643997</v>
       </c>
       <c r="BO2" t="n">
-        <v>-1.49609508577496</v>
+        <v>-0.670163009072546</v>
       </c>
       <c r="BP2" t="n">
-        <v>-0.813762303375098</v>
+        <v>1.68160208765587</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.257759677181043</v>
+        <v>1.63336649369882</v>
       </c>
       <c r="BR2" t="n">
-        <v>-1.64476203109193</v>
+        <v>-0.17344044619022</v>
       </c>
       <c r="BS2" t="n">
-        <v>-0.715998897754773</v>
+        <v>-1.79622660631003</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.09969773578115</v>
+        <v>-0.341294934046636</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.408404861357164</v>
+        <v>-0.75934237432454</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.177567923394419</v>
+        <v>0.651798009813966</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.451370638363548</v>
+        <v>-0.210203786322877</v>
       </c>
       <c r="BX2" t="n">
-        <v>-1.68344827255538</v>
+        <v>0.266117974019244</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.362092205701919</v>
+        <v>-1.0834982023433</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.181390273011138</v>
+        <v>0.536891020315529</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.576030535445599</v>
+        <v>0.480559824490066</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.125189003546906</v>
+        <v>-1.19772785885881</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.522232224432557</v>
+        <v>0.51335965551497</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.378474862795285</v>
+        <v>-1.37117518668284</v>
       </c>
       <c r="CE2" t="n">
-        <v>-1.02511819719282</v>
+        <v>-0.619847344816198</v>
       </c>
       <c r="CF2" t="n">
-        <v>2.16241877513348</v>
+        <v>1.5225092184797</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0.635668989751764</v>
+        <v>0.379436004899289</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.642320715873177</v>
+        <v>0.210992524177567</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0.0251129016637303</v>
+        <v>0.207935322782089</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0.816329650033594</v>
+        <v>0.811785384123602</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.968646065319726</v>
+        <v>0.333613969316861</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.451260616142811</v>
+        <v>0.174521322396663</v>
       </c>
       <c r="CM2" t="n">
-        <v>-1.38742506422372</v>
+        <v>0.0684903051929119</v>
       </c>
       <c r="CN2" t="n">
-        <v>1.8753300316444</v>
+        <v>-0.680397866748388</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0.237729759491227</v>
+        <v>0.305541731854344</v>
       </c>
       <c r="CP2" t="n">
-        <v>-1.96827764614347</v>
+        <v>0.298073245723058</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.151667785261668</v>
+        <v>-0.302073097438778</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.970323416769708</v>
+        <v>0.739917043950147</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.889791142360513</v>
+        <v>-0.925785698521924</v>
       </c>
       <c r="CT2" t="n">
-        <v>-1.65923241827117</v>
+        <v>0.43727436419834</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.302073078104987</v>
+        <v>-0.920445117951923</v>
       </c>
       <c r="CV2" t="n">
-        <v>1.63032270801032</v>
+        <v>0.333022280823903</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.666304147224956</v>
+        <v>-0.865356262994443</v>
       </c>
       <c r="CX2" t="n">
-        <v>-1.32227261052058</v>
+        <v>-2.43598542849127</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.348579545391616</v>
+        <v>-0.668502247088773</v>
       </c>
       <c r="CZ2" t="n">
-        <v>1.81832851006758</v>
+        <v>0.144111813077471</v>
       </c>
       <c r="DA2" t="n">
-        <v>-1.94578451690808</v>
+        <v>-2.29582843361503</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.0866963902047247</v>
+        <v>1.4350869697198</v>
       </c>
       <c r="DC2" t="n">
-        <v>-1.81044162727586</v>
+        <v>0.25824047426126</v>
       </c>
       <c r="DD2" t="n">
-        <v>-0.829788021485639</v>
+        <v>-0.459610811510085</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0.483130156828207</v>
+        <v>-0.000363177101163902</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.64869108683121</v>
+        <v>-0.32322716954406</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.866674161502266</v>
+        <v>-1.0788574853441</v>
       </c>
       <c r="DH2" t="n">
-        <v>2.44665146294621</v>
+        <v>-1.45137364446684</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.616652845115884</v>
+        <v>-1.59656915806303</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-1.73270374880527</v>
+        <v>0.716571656939206</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.423455498065918</v>
+        <v>-1.455553292712</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.0346176200471798</v>
+        <v>0.475395566309414</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.682317213834178</v>
+        <v>0.854470574655857</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0.969481486652363</v>
+        <v>0.557901190432116</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.294497042733705</v>
+        <v>0.102232062429037</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.437222125883419</v>
+        <v>-0.000679306635012835</v>
       </c>
       <c r="DQ2" t="n">
-        <v>1.21555064344704</v>
+        <v>1.56125684164564</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.205024221355635</v>
+        <v>0.899218367016682</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.349277563459942</v>
+        <v>-0.0119521534795719</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.28102231021795</v>
+        <v>1.7738670708134</v>
       </c>
       <c r="DU2" t="n">
-        <v>-1.8409796366338</v>
+        <v>-1.01911981188862</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.200531020604046</v>
+        <v>-0.955451541509246</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.114034461045016</v>
+        <v>-0.560577241485244</v>
       </c>
       <c r="DX2" t="n">
-        <v>1.521194041549</v>
+        <v>0.270511666755431</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.721252245039535</v>
+        <v>0.703742125933337</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.493878758934765</v>
+        <v>0.489310900813018</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.665188893773137</v>
+        <v>0.870306951396793</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.474926015326751</v>
+        <v>-1.09242734246687</v>
       </c>
       <c r="EC2" t="n">
-        <v>-1.75494069490907</v>
+        <v>0.729431609253087</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.672957961894489</v>
+        <v>0.0497176155539975</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0.329217716458147</v>
+        <v>-0.0151663167028214</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.144829431830466</v>
+        <v>0.744308765492634</v>
       </c>
       <c r="EG2" t="n">
-        <v>-1.29014813118654</v>
+        <v>0.250839800618875</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.328251088902849</v>
+        <v>0.977544511130204</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0.100248987305749</v>
+        <v>-0.843766068271424</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1.0364123585088</v>
+        <v>-0.361896496501984</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.0029672819333219</v>
+        <v>-0.12889708604661</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.320990702420545</v>
+        <v>0.254004500822149</v>
       </c>
       <c r="EM2" t="n">
-        <v>1.44678514190242</v>
+        <v>1.89679445157269</v>
       </c>
       <c r="EN2" t="n">
-        <v>1.90792481667073</v>
+        <v>0.929891273700803</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.0331271203685016</v>
+        <v>1.34720298248111</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.458003176918757</v>
+        <v>-0.536905201885561</v>
       </c>
       <c r="EQ2" t="n">
-        <v>1.20827253721667</v>
+        <v>-1.25003844499014</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.275695192025783</v>
+        <v>-0.918676376050902</v>
       </c>
       <c r="ES2" t="n">
-        <v>1.0791847060802</v>
+        <v>-0.246950121606743</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.116379123390266</v>
+        <v>2.16265946826984</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.196143336789465</v>
+        <v>0.428637381153967</v>
       </c>
       <c r="EV2" t="n">
-        <v>-3.22306515304667</v>
+        <v>1.63614475813776</v>
       </c>
       <c r="EW2" t="n">
-        <v>-1.93054444119244</v>
+        <v>0.562199149758654</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.31526942252802</v>
+        <v>0.654331943783395</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.0381938001612721</v>
+        <v>0.266196095589897</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.789847120889859</v>
+        <v>1.17251050853722</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0.26053699097266</v>
+        <v>1.29477553217863</v>
       </c>
       <c r="FB2" t="n">
-        <v>-1.06209852721091</v>
+        <v>0.377831559336176</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0.312413591360455</v>
+        <v>-0.621822651630616</v>
       </c>
       <c r="FD2" t="n">
-        <v>-1.20177588611681</v>
+        <v>0.380285540637415</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.079579316754942</v>
+        <v>0.208835129050019</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0.570044269925525</v>
+        <v>-1.63116498750361</v>
       </c>
       <c r="FG2" t="n">
-        <v>-1.68810170934882</v>
+        <v>-0.15307855262348</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.229668110912518</v>
+        <v>-0.0898923751112392</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.229132588396683</v>
+        <v>-1.43175216982243</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.418405963212464</v>
+        <v>1.00768581988249</v>
       </c>
       <c r="FK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL2" t="n">
         <v>1</v>
       </c>
-      <c r="FL2" t="n">
+      <c r="FM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN2" t="n">
         <v>0</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>1</v>
       </c>
       <c r="FO2" t="n">
         <v>0</v>
       </c>
       <c r="FP2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ2" t="n">
         <v>0</v>
       </c>
       <c r="FR2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FS2" t="n">
         <v>0</v>
       </c>
       <c r="FT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU2" t="n">
         <v>1</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>0</v>
       </c>
       <c r="FV2" t="n">
         <v>0</v>
       </c>
       <c r="FW2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FX2" t="n">
         <v>1</v>
       </c>
       <c r="FY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ2" t="n">
         <v>1</v>
       </c>
-      <c r="FZ2" t="n">
+      <c r="GA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC2" t="n">
         <v>0</v>
       </c>
-      <c r="GA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>0</v>
+      <c r="GD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/file_checks/correct_sample.xlsx
+++ b/file_checks/correct_sample.xlsx
@@ -1469,508 +1469,508 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.889075795058158</v>
+        <v>-1.10887471336374</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.129217247201182</v>
+        <v>-1.7339542772507</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.777913205337782</v>
+        <v>-0.746042685549928</v>
       </c>
       <c r="D2" t="n">
-        <v>0.823275895010583</v>
+        <v>-0.748147442448227</v>
       </c>
       <c r="E2" t="n">
-        <v>0.706369012126771</v>
+        <v>-0.0592961874597874</v>
       </c>
       <c r="F2" t="n">
-        <v>1.0455363390689</v>
+        <v>-0.568207247825104</v>
       </c>
       <c r="G2" t="n">
-        <v>0.458358543125255</v>
+        <v>0.187304333531254</v>
       </c>
       <c r="H2" t="n">
-        <v>0.318418276974692</v>
+        <v>0.613571162493103</v>
       </c>
       <c r="I2" t="n">
-        <v>1.22998023687254</v>
+        <v>0.597657591628032</v>
       </c>
       <c r="J2" t="n">
-        <v>1.01622313995245</v>
+        <v>1.29749279715601</v>
       </c>
       <c r="K2" t="n">
-        <v>-1.21704041737925</v>
+        <v>0.0989578769326862</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0913336108297502</v>
+        <v>1.69263450401605</v>
       </c>
       <c r="M2" t="n">
-        <v>1.34960536691478</v>
+        <v>-0.484399437050063</v>
       </c>
       <c r="N2" t="n">
-        <v>-1.11271771974539</v>
+        <v>-1.54022181875962</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.47648462832388</v>
+        <v>0.46065730931104</v>
       </c>
       <c r="P2" t="n">
-        <v>0.75527114153421</v>
+        <v>0.278358474066036</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0902412908144361</v>
+        <v>-0.243593105360867</v>
       </c>
       <c r="R2" t="n">
-        <v>0.682579862065519</v>
+        <v>0.572400707003282</v>
       </c>
       <c r="S2" t="n">
-        <v>-1.56233509327399</v>
+        <v>0.0665580649133311</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.592640738064186</v>
+        <v>0.2558045911837</v>
       </c>
       <c r="U2" t="n">
-        <v>-1.88340481436647</v>
+        <v>0.000517732183765325</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.547703474498295</v>
+        <v>0.498078186174683</v>
       </c>
       <c r="W2" t="n">
-        <v>0.183908818221535</v>
+        <v>-0.560578688990653</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.0284490495321444</v>
+        <v>-1.4320799278917</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.7818680133141</v>
+        <v>2.83648887774126</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.978280541704416</v>
+        <v>-1.06100899474802</v>
       </c>
       <c r="AA2" t="n">
-        <v>-1.8792794034893</v>
+        <v>-0.193887142456246</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.79851702452148</v>
+        <v>-0.00270034724507105</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.731525073347079</v>
+        <v>-0.984684674519648</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.506037593427788</v>
+        <v>1.05208372202079</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.000984124480283662</v>
+        <v>-0.129461931068388</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.664715721124253</v>
+        <v>-0.155316988506372</v>
       </c>
       <c r="AG2" t="n">
-        <v>-2.13419030060521</v>
+        <v>1.73597724602185</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.894785983398842</v>
+        <v>0.46944264729032</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.941419200258391</v>
+        <v>0.503097151489893</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.405155261905546</v>
+        <v>-0.562768640990638</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.55282439394079</v>
+        <v>0.63587023507851</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.244457868868051</v>
+        <v>1.13874687127383</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.0568643659642897</v>
+        <v>0.98704219897904</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.29007879073731</v>
+        <v>-0.300951502541733</v>
       </c>
       <c r="AO2" t="n">
-        <v>-1.04433834725276</v>
+        <v>0.640735756370566</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.22726437958658</v>
+        <v>1.6145818023561</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.572720312144919</v>
+        <v>0.565286705942919</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.283256103114697</v>
+        <v>1.19723607887851</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.00144924934778719</v>
+        <v>-0.655389350087162</v>
       </c>
       <c r="AT2" t="n">
-        <v>-1.0065462118355</v>
+        <v>-0.5482404671447</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.31290767366886</v>
+        <v>-0.0167884621897159</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.32101776257702</v>
+        <v>-0.0345841364402799</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.669444771619399</v>
+        <v>-0.704374061048239</v>
       </c>
       <c r="AX2" t="n">
-        <v>-2.99837171054227</v>
+        <v>-0.89095649858835</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.043265124270529</v>
+        <v>-1.21944397300895</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.380887930180112</v>
+        <v>-1.63690959988739</v>
       </c>
       <c r="BA2" t="n">
-        <v>-1.29237648555457</v>
+        <v>0.125851904626945</v>
       </c>
       <c r="BB2" t="n">
-        <v>-0.889787178217362</v>
+        <v>0.270757428673584</v>
       </c>
       <c r="BC2" t="n">
-        <v>1.05058236794416</v>
+        <v>-0.573417794731764</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.941071312847797</v>
+        <v>0.926535741232899</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.449483843953683</v>
+        <v>-0.345475740892102</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.477900256913852</v>
+        <v>1.19684890822218</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.51103420911874</v>
+        <v>0.288602172953317</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.852811720328571</v>
+        <v>1.39687813863361</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.343657721726187</v>
+        <v>1.06172759969059</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-1.4952103057921</v>
+        <v>-1.55261373954849</v>
       </c>
       <c r="BK2" t="n">
-        <v>-1.84111364504156</v>
+        <v>0.159710944840514</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.845609607380417</v>
+        <v>-0.84477080287578</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0.209521583799434</v>
+        <v>-1.13041054517432</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.0520487591643997</v>
+        <v>-1.05664587772052</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0.670163009072546</v>
+        <v>-1.08831747239693</v>
       </c>
       <c r="BP2" t="n">
-        <v>1.68160208765587</v>
+        <v>1.25801605644187</v>
       </c>
       <c r="BQ2" t="n">
-        <v>1.63336649369882</v>
+        <v>1.40051245975545</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.17344044619022</v>
+        <v>1.18974202764458</v>
       </c>
       <c r="BS2" t="n">
-        <v>-1.79622660631003</v>
+        <v>0.0553210058569251</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.341294934046636</v>
+        <v>0.25452492227665</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.75934237432454</v>
+        <v>-0.0372726290213715</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.651798009813966</v>
+        <v>-1.33909816575881</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.210203786322877</v>
+        <v>-1.07290775151156</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.266117974019244</v>
+        <v>0.723477162370482</v>
       </c>
       <c r="BY2" t="n">
-        <v>-1.0834982023433</v>
+        <v>0.541818208468691</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.536891020315529</v>
+        <v>-0.614481893630715</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.480559824490066</v>
+        <v>0.291819803612565</v>
       </c>
       <c r="CB2" t="n">
-        <v>-1.19772785885881</v>
+        <v>0.729839455572263</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.51335965551497</v>
+        <v>0.536469351121684</v>
       </c>
       <c r="CD2" t="n">
-        <v>-1.37117518668284</v>
+        <v>-0.699062054567867</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.619847344816198</v>
+        <v>-0.943896471959935</v>
       </c>
       <c r="CF2" t="n">
-        <v>1.5225092184797</v>
+        <v>0.583336683129472</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.379436004899289</v>
+        <v>0.166478492539423</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.210992524177567</v>
+        <v>-0.526604219885923</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.207935322782089</v>
+        <v>0.837186454895932</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.811785384123602</v>
+        <v>-0.31524725928303</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.333613969316861</v>
+        <v>-1.26281719703799</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.174521322396663</v>
+        <v>0.109834115014746</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.0684903051929119</v>
+        <v>0.919007674673251</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0.680397866748388</v>
+        <v>0.865197819818729</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.305541731854344</v>
+        <v>0.901115292625351</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.298073245723058</v>
+        <v>-0.104038034950357</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.302073097438778</v>
+        <v>0.966743928218113</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.739917043950147</v>
+        <v>-0.292411221036437</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.925785698521924</v>
+        <v>0.870182294342522</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.43727436419834</v>
+        <v>-0.424483536237391</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.920445117951923</v>
+        <v>-0.581408210133213</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.333022280823903</v>
+        <v>0.200070759242206</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.865356262994443</v>
+        <v>-1.04438286224377</v>
       </c>
       <c r="CX2" t="n">
-        <v>-2.43598542849127</v>
+        <v>-1.1132452587994</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0.668502247088773</v>
+        <v>-2.30485541141448</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.144111813077471</v>
+        <v>-0.590735293128145</v>
       </c>
       <c r="DA2" t="n">
-        <v>-2.29582843361503</v>
+        <v>-0.961664513917307</v>
       </c>
       <c r="DB2" t="n">
-        <v>1.4350869697198</v>
+        <v>0.141666956539587</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.25824047426126</v>
+        <v>0.238191206698444</v>
       </c>
       <c r="DD2" t="n">
-        <v>-0.459610811510085</v>
+        <v>0.436920414816572</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0.000363177101163902</v>
+        <v>1.58476605814051</v>
       </c>
       <c r="DF2" t="n">
-        <v>-0.32322716954406</v>
+        <v>0.547864564838157</v>
       </c>
       <c r="DG2" t="n">
-        <v>-1.0788574853441</v>
+        <v>-0.3981826414874</v>
       </c>
       <c r="DH2" t="n">
-        <v>-1.45137364446684</v>
+        <v>-0.592708913453898</v>
       </c>
       <c r="DI2" t="n">
-        <v>-1.59656915806303</v>
+        <v>0.708596733696763</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.716571656939206</v>
+        <v>-1.00159940027736</v>
       </c>
       <c r="DK2" t="n">
-        <v>-1.455553292712</v>
+        <v>-0.528098068913369</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.475395566309414</v>
+        <v>0.785095724613235</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.854470574655857</v>
+        <v>0.91905855808722</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.557901190432116</v>
+        <v>-1.51402550860696</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.102232062429037</v>
+        <v>1.22115881265143</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.000679306635012835</v>
+        <v>-0.433714718041615</v>
       </c>
       <c r="DQ2" t="n">
-        <v>1.56125684164564</v>
+        <v>0.678255497250818</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.899218367016682</v>
+        <v>0.374268677843867</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.0119521534795719</v>
+        <v>1.32710108828824</v>
       </c>
       <c r="DT2" t="n">
-        <v>1.7738670708134</v>
+        <v>-1.01092637171812</v>
       </c>
       <c r="DU2" t="n">
-        <v>-1.01911981188862</v>
+        <v>0.198857839152391</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.955451541509246</v>
+        <v>-1.02572516399429</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0.560577241485244</v>
+        <v>0.653581352976256</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.270511666755431</v>
+        <v>0.273861107083081</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.703742125933337</v>
+        <v>1.53478426444407</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.489310900813018</v>
+        <v>0.394968869760614</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.870306951396793</v>
+        <v>-0.532643364019427</v>
       </c>
       <c r="EB2" t="n">
-        <v>-1.09242734246687</v>
+        <v>0.0563184786530225</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.729431609253087</v>
+        <v>0.327270024250129</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.0497176155539975</v>
+        <v>0.601176915711426</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0.0151663167028214</v>
+        <v>0.206876849545089</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.744308765492634</v>
+        <v>1.6872988870842</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.250839800618875</v>
+        <v>1.16919359816078</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.977544511130204</v>
+        <v>-1.43672223143903</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0.843766068271424</v>
+        <v>-0.213230026653146</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.361896496501984</v>
+        <v>0.101211486426693</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.12889708604661</v>
+        <v>0.738185869305679</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.254004500822149</v>
+        <v>1.01923374361956</v>
       </c>
       <c r="EM2" t="n">
-        <v>1.89679445157269</v>
+        <v>-1.38251597069847</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.929891273700803</v>
+        <v>0.692744002737684</v>
       </c>
       <c r="EO2" t="n">
-        <v>1.34720298248111</v>
+        <v>0.417296766936429</v>
       </c>
       <c r="EP2" t="n">
-        <v>-0.536905201885561</v>
+        <v>1.09249960339032</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-1.25003844499014</v>
+        <v>0.964667676507089</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.918676376050902</v>
+        <v>-0.947268516870079</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.246950121606743</v>
+        <v>-1.3401973890213</v>
       </c>
       <c r="ET2" t="n">
-        <v>2.16265946826984</v>
+        <v>0.663267919451095</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.428637381153967</v>
+        <v>0.990125912078521</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.63614475813776</v>
+        <v>-0.671683718102899</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.562199149758654</v>
+        <v>0.240056242021318</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.654331943783395</v>
+        <v>0.379157063994791</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.266196095589897</v>
+        <v>-0.486024939252457</v>
       </c>
       <c r="EZ2" t="n">
-        <v>1.17251050853722</v>
+        <v>0.159434105096615</v>
       </c>
       <c r="FA2" t="n">
-        <v>1.29477553217863</v>
+        <v>0.217646186155219</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.377831559336176</v>
+        <v>0.543507817163261</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0.621822651630616</v>
+        <v>0.748180551723733</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.380285540637415</v>
+        <v>0.453006748474438</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.208835129050019</v>
+        <v>0.422388014946056</v>
       </c>
       <c r="FF2" t="n">
-        <v>-1.63116498750361</v>
+        <v>0.0170058414299331</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.15307855262348</v>
+        <v>-0.413512022296742</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.0898923751112392</v>
+        <v>-0.366873154407678</v>
       </c>
       <c r="FI2" t="n">
-        <v>-1.43175216982243</v>
+        <v>1.39518866906496</v>
       </c>
       <c r="FJ2" t="n">
-        <v>1.00768581988249</v>
+        <v>-0.0861729781089503</v>
       </c>
       <c r="FK2" t="n">
         <v>0</v>
       </c>
       <c r="FL2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM2" t="n">
         <v>1</v>
@@ -1979,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="FO2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP2" t="n">
         <v>0</v>
@@ -1997,13 +1997,13 @@
         <v>0</v>
       </c>
       <c r="FU2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FV2" t="n">
         <v>0</v>
       </c>
       <c r="FW2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FX2" t="n">
         <v>1</v>
@@ -2012,22 +2012,22 @@
         <v>0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GA2" t="n">
         <v>1</v>
       </c>
       <c r="GB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC2" t="n">
         <v>1</v>
       </c>
-      <c r="GC2" t="n">
+      <c r="GD2" t="n">
         <v>0</v>
       </c>
-      <c r="GD2" t="n">
-        <v>1</v>
-      </c>
       <c r="GE2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
